--- a/Docs/Use Case Narratives.xlsx
+++ b/Docs/Use Case Narratives.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3700" yWindow="0" windowWidth="33580" windowHeight="20500" tabRatio="771" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="3705" yWindow="0" windowWidth="21840" windowHeight="13740" tabRatio="771"/>
   </bookViews>
   <sheets>
     <sheet name="Sleeping Reservation" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="Add New Facility" sheetId="10" r:id="rId10"/>
     <sheet name="Edit Facility" sheetId="11" r:id="rId11"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="71">
   <si>
     <r>
       <rPr>
@@ -314,32 +317,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Extentions:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-3. No facilities available matches reservation criteria during reservation date
-     3.1 User is given alternative options for specified date
-     3.2 User cancels reservation, reservation not created</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Use Case Title:</t>
     </r>
     <r>
@@ -487,30 +464,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Extentions:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Use Case Title:</t>
     </r>
     <r>
@@ -630,7 +583,920 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Extentions:</t>
+      <t xml:space="preserve">Main Success Scenario:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Input room information
+2. Input maintenance description
+3. Submit
+4. Display verification</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Main Success Scenario:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Get facility info
+2. Update required information
+3. Submit
+4. Display verification</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Use Case Title:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Check-out guest</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Primary Actor:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Front desk</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stakeholders:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> guest</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Precondition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> guest is checked in</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Success Guarantee:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> guest is checked out, payment is submitted and charges recorded as paid</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Use Case Title:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Make room adjustments</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Primary Actor:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> front desk</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Success Guarantee:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> guest is assigned to new room</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Trigger: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>guest requests new room assignment</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Trigger: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Guest request checkout</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Use Case Title:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Perform Maintenance</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Primary Actor:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Maintenance staff</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stakeholders:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Maintenance staff</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Precondition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> room is flagged for maintenance</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Success Guarantee:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> maintenance logged</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Trigger: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Maintenance staff performs and logs maintenance</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Use Case Title:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Flag room for maintenance</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Precondition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> room is unoccupied</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Success Guarantee:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Room is flagged for maintenance in database</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Trigger: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Staff flags a room for maintenance</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Use Case Title:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Edit Facility</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Primary Actor:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Administration</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stakeholders:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Administration</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Precondition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Facility exist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Success Guarantee:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Facilities updated in database</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Trigger: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Administration chooses to edit facility data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Use Case Title:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Add New Facility</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Success Guarantee:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> New facility added to database</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Trigger: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Administration chooses to add new facility</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Use Case Title:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Bill service to room</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Primary Actor:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Service staff</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Precondition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Room has an associated billing party</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Success Guarantee:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Charges charged to room / guest</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Trigger: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Guest bills service to room</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Main Success Scenario:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Input room number
+2. Check room number has guest
+3. Input charge and description
+4. Submit charge
+5. Display verification</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Minimal Guarantee:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> No changes made</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Extensions:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. No facilities available matches reservation criteria during reservation date
+     3.1 User is given alternative options for specified date
+     3.2 User cancels reservation, reservation not created</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Extensions:</t>
     </r>
     <r>
       <rPr>
@@ -657,6 +1523,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Extensions:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Main Success Scenario:
 </t>
     </r>
@@ -672,8 +1562,31 @@
 2. Get all associated charges
 3. Verify payment information
 4. Submit payment
-5. Flag room for check-out maintanence
+5. Flag room for check-out maintenance
 6. Display verification</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Minimal Guarantee:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> no changes made</t>
     </r>
   </si>
   <si>
@@ -700,7 +1613,7 @@
       <t>1. Get guest &amp; room information
 2. Get available rooms
 3. Assign guest to new room
-4. Unassign guest from old room
+4. Un-assign guest from old room
 5. Flag old room for maintenance
 6. Display verification</t>
     </r>
@@ -715,6 +1628,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Precondition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> guest is assigned to a room</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Main Success Scenario:
 </t>
     </r>
@@ -726,7 +1662,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1. Get Room maintenence ticket
+      <t>1. Get Room maintenance ticket
 2. Log maintenance performed
      2a. Complete: Flag maintenance as complete
      2b. Additional maintenance required: Flag for additional
@@ -755,6 +1691,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Extensions:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Room has no guest
+     2a. User returned to input different room number / guest</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Main Success Scenario:
 </t>
     </r>
@@ -766,35 +1727,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1. Input room information
-2. Input maintenance description
-3. Submit
-4. Display verification</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Main Success Scenario:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>1. Input facility information
-     1a. Room: Room number, wing, floor, building, etc
+     1a. Room: Room number, wing, floor, building, etc.
      1b. Floor: Building, smoking
      1c. Wing: Building, proximities
      1d. Building: Building name
@@ -812,632 +1746,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Main Success Scenario:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. Get facility info
-2. Update required information
-3. Submit
-4. Display verification</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Use Case Title:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Check-out guest</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Primary Actor:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Front desk</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Stakeholders:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> guest</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Precondition:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> guest is checked in</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Minimual Guarantee:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> no changes made</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Success Guarantee:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> guest is checked out, payment is submitted and charges recorded as paid</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Use Case Title:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Make room adjustments</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Primary Actor:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> front desk</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Precondition:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> guest is assigned to a romm</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Success Guarantee:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> guest is assigned to new room</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Trigger: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>guest requests new room assignment</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Trigger: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Guest request checkout</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Use Case Title:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Perform Maintenance</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Primary Actor:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Maintenance staff</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Stakeholders:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Maintenance staff</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Precondition:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> room is flagged for maintenance</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Success Guarantee:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> maintenance logged</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Trigger: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Maintenance staff performs and logs maintenance</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Use Case Title:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Flag room for maintenance</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Precondition:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> room is unoccupied</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Success Guarantee:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Room is flagged for maintenance in database</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Trigger: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Staff flags a room for maintenance</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Use Case Title:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Edit Facility</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Primary Actor:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Administration</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Stakeholders:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Administration</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Precondition:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Facility exist</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Minimual Guarantee:</t>
+      <t>Minimal Guarantee:</t>
     </r>
     <r>
       <rPr>
@@ -1448,289 +1757,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> No Changes Made</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Success Guarantee:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Facilities updated in database</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Trigger: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Administration chooses to edit facility data</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Use Case Title:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Add New Facility</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Success Guarantee:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> New facility added to database</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Trigger: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Administration chooses to add new facility</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Use Case Title:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Bill service to room</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Primary Actor:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Service staff</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Precondition:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Room has an associated billing party</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Success Guarantee:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Charges charged to room / guest</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Trigger: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Guest bills service to room</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Main Success Scenario:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. Input room number
-2. Check room number has guest
-3. Input charge and description
-4. Submit charge
-5. Display verification</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Extentions:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2. Room has no guest
-     2a. User returned to input different room number / guest</t>
     </r>
   </si>
 </sst>
@@ -1738,14 +1764,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -1797,16 +1816,16 @@
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1830,8 +1849,41 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2159,61 +2211,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="96.42578125" customWidth="1"/>
+    <col min="1" max="1" width="96.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="180">
+    <row r="9" spans="1:1" ht="187.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="72">
+    <row r="10" spans="1:1" ht="75" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2234,62 +2286,62 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="96.42578125" customWidth="1"/>
+    <col min="1" max="1" width="96.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="150" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="144">
-      <c r="A9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="36">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2307,62 +2359,62 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="96.28515625" customWidth="1"/>
+    <col min="1" max="1" width="96.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="90">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="36">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2379,63 +2431,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="96.5703125" customWidth="1"/>
+    <col min="1" max="1" width="96.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="180">
+    <row r="9" spans="1:1" ht="187.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="72">
+    <row r="10" spans="1:1" ht="75" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2454,62 +2506,62 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="96.5703125" customWidth="1"/>
+    <col min="1" max="1" width="96.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="9" spans="1:1" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="90">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="90">
+    <row r="10" spans="1:1" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2528,62 +2580,62 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="96.42578125" customWidth="1"/>
+    <col min="1" max="1" width="96.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="9" spans="1:1" ht="187.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="180">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="36">
+    <row r="10" spans="1:1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2601,62 +2653,62 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="96.42578125" customWidth="1"/>
+    <col min="1" max="1" width="96.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="126">
+    <row r="9" spans="1:1" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="36">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2674,62 +2726,62 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="96.42578125" customWidth="1"/>
+    <col min="1" max="1" width="96.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="126">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="36">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2747,62 +2799,62 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="96.42578125" customWidth="1"/>
+    <col min="1" max="1" width="96.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="126">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="36">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2820,62 +2872,62 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="96.42578125" customWidth="1"/>
+    <col min="1" max="1" width="96.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="90">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="36">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2893,63 +2945,63 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="96.140625" customWidth="1"/>
+    <col min="1" max="1" width="96.09765625" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="108">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="54">
-      <c r="A10" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
